--- a/spark/experiments/results-sql-g2.2.csv/g2.2-3t-n2-c3-m29-default-memory-fraction-i2--no-cache.xlsx
+++ b/spark/experiments/results-sql-g2.2.csv/g2.2-3t-n2-c3-m29-default-memory-fraction-i2--no-cache.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddya\OneDrive\Documents\heterogenous-scaling-in-k8s\spark\experiments\results-sql-g2.2.csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eddy\Documents\DistriNetProjects\Decomads\heterogenous-scaling-in-k8s\spark\experiments\results-sql-g2.2.csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{208F5A9F-5165-48E1-B580-2FDD5137B65A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{177944A9-426B-4080-8DD1-212FA8F6D6F4}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24000" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="396" yWindow="396" windowWidth="24000" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="part-00000-fd90cf01-a10f-4df5-8" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -189,12 +188,15 @@
   </si>
   <si>
     <t>percentile95-warmup (s)</t>
+  </si>
+  <si>
+    <t>deviation is too high</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -705,24 +707,24 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Berekening" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Kop 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Kop 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Neutraal" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notitie" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ongeldig" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
-    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Totaal" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Uitvoer" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -738,9 +740,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -752,6 +754,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -942,7 +945,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-971E-4E0D-B21E-70F24B37188A}"/>
             </c:ext>
@@ -956,11 +959,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1832307759"/>
-        <c:axId val="1828309311"/>
+        <c:axId val="1566782928"/>
+        <c:axId val="1566784016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1832307759"/>
+        <c:axId val="1566782928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,12 +1019,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1828309311"/>
+        <c:crossAx val="1566784016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1828309311"/>
+        <c:axId val="1566784016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1081,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1832307759"/>
+        <c:crossAx val="1566782928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1092,14 +1095,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1710,7 +1713,7 @@
         <xdr:cNvPr id="2" name="Grafiek 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D6B56F-7D3C-4A02-817B-D39754BD8240}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09D6B56F-7D3C-4A02-817B-D39754BD8240}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,16 +2030,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:C50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2116,7 +2122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2190,7 +2196,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2264,7 +2270,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2338,7 +2344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2412,7 +2418,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2486,7 +2492,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2560,7 +2566,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2634,7 +2640,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2708,7 +2714,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2782,7 +2788,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2856,7 +2862,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2930,7 +2936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -3004,7 +3010,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3078,7 +3084,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3152,7 +3158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3226,7 +3232,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -3300,7 +3306,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3374,7 +3380,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -3448,7 +3454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -3522,7 +3528,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -3596,7 +3602,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3670,7 +3676,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3744,7 +3750,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3818,7 +3824,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3892,7 +3898,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3966,7 +3972,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4040,7 +4046,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4114,7 +4120,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -4188,7 +4194,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -4262,7 +4268,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -4336,7 +4342,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -4410,7 +4416,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -4484,7 +4490,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -4558,7 +4564,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -4632,7 +4638,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -4706,7 +4712,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -4780,7 +4786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -4854,7 +4860,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -4928,7 +4934,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -5002,7 +5008,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -5076,7 +5082,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -5095,7 +5101,7 @@
         <v>201403221</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -5113,7 +5119,7 @@
         <v>70447354.900000006</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -5132,7 +5138,7 @@
         <v>49813894.399999999</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -5150,7 +5156,7 @@
         <v>32695950.519999992</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -5172,7 +5178,7 @@
         <v>5024342308</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -5194,7 +5200,7 @@
         <v>83739.038466666665</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -5208,7 +5214,7 @@
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -5217,13 +5223,16 @@
         <v>8.22599860449996</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="C50">
         <f>C44/1000/1000/1000</f>
         <v>41.42616787419999</v>
+      </c>
+      <c r="D50" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
